--- a/uploads/기사관리.xlsx
+++ b/uploads/기사관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pdata\ojy-hmtaxi-erp\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D2AEA-1408-45DA-A3CF-8249A397BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898ED8FC-F1EE-4A6E-BDEE-7B0E1291A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66348461-5697-4C24-A8D1-6ED51936E14B}"/>
+    <workbookView xWindow="22932" yWindow="216" windowWidth="23256" windowHeight="12456" xr2:uid="{66348461-5697-4C24-A8D1-6ED51936E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="597">
   <si>
     <t>사번</t>
   </si>
@@ -1795,6 +1795,12 @@
   </si>
   <si>
     <t>서울특별시 서대문구 증가로17길 35-9 (북가좌동) 3층</t>
+  </si>
+  <si>
+    <t>11-98-267097-20</t>
+  </si>
+  <si>
+    <t>서울시 용산구 용산동2가 1-539</t>
   </si>
   <si>
     <t>나이</t>
@@ -2270,37 +2276,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01CCB6-0276-41F2-83C5-49323BA96249}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.19921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="106" width="10.69921875" customWidth="1"/>
+    <col min="12" max="106" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2318,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -2327,7 +2333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>536</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>35886</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>11</v>
@@ -2363,7 +2369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1563</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>38124</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>16</v>
@@ -2399,7 +2405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1867</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>39001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>21</v>
@@ -2435,7 +2441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1897</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>39083</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -2471,7 +2477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1918</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>39167</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -2507,7 +2513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1979</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>39420</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2543,7 +2549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1981</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>39426</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2579,7 +2585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2386</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>41068</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -2615,7 +2621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2415</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>41191</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
@@ -2651,7 +2657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2518</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>41640</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -2687,7 +2693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2571</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>41821</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>61</v>
@@ -2723,7 +2729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2581</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>41852</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -2759,7 +2765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2603</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>41944</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>71</v>
@@ -2791,7 +2797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2604</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>41944</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>76</v>
@@ -2827,7 +2833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2618</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>42037</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>81</v>
@@ -2863,7 +2869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2632</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>42119</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
@@ -2899,7 +2905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2643</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>42192</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>91</v>
@@ -2935,7 +2941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2645</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>42217</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>96</v>
@@ -2971,7 +2977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2647</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>42217</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>101</v>
@@ -3007,7 +3013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2693</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>42522</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>106</v>
@@ -3043,7 +3049,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2702</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>42583</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>111</v>
@@ -3079,7 +3085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2730</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>42767</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>116</v>
@@ -3115,7 +3121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2737</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>42795</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>121</v>
@@ -3151,7 +3157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2750</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>42887</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>126</v>
@@ -3187,7 +3193,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2758</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>42954</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>131</v>
@@ -3223,7 +3229,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2759</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>42954</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>136</v>
@@ -3259,7 +3265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2798</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>43291</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>141</v>
@@ -3295,7 +3301,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2806</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>43347</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>146</v>
@@ -3331,7 +3337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2813</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>43376</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>151</v>
@@ -3367,7 +3373,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2818</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>43466</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>156</v>
@@ -3403,7 +3409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2823</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>43510</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>161</v>
@@ -3439,7 +3445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2835</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>43678</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>166</v>
@@ -3475,7 +3481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2838</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>43689</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>171</v>
@@ -3511,7 +3517,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2844</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>43801</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>176</v>
@@ -3547,7 +3553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2846</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>43834</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>181</v>
@@ -3579,7 +3585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>6003</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>43563</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>186</v>
@@ -3615,7 +3621,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>6012</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>43577</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>191</v>
@@ -3651,7 +3657,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>6020</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>43592</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>195</v>
@@ -3681,7 +3687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>6023</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>43598</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>200</v>
@@ -3717,7 +3723,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>6026</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>43598</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>205</v>
@@ -3753,7 +3759,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>6042</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>43640</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>210</v>
@@ -3789,7 +3795,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>6046</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>43650</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>215</v>
@@ -3825,7 +3831,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>6047</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>43675</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>220</v>
@@ -3861,7 +3867,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>6054</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>43689</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>225</v>
@@ -3897,7 +3903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>6060</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>43709</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>230</v>
@@ -3933,7 +3939,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>6071</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>43760</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>235</v>
@@ -3969,7 +3975,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>6072</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>43770</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>240</v>
@@ -4005,7 +4011,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>6074</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>43800</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>245</v>
@@ -4041,7 +4047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>6075</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>43801</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>250</v>
@@ -4077,7 +4083,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>6078</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>43801</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>255</v>
@@ -4113,7 +4119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>6079</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>43892</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>260</v>
@@ -4149,7 +4155,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>6080</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>43902</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>265</v>
@@ -4185,7 +4191,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>6081</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>43902</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>270</v>
@@ -4221,7 +4227,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>6086</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>43928</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>275</v>
@@ -4257,7 +4263,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>6093</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>43955</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>281</v>
@@ -4293,7 +4299,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>6097</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>43969</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>286</v>
@@ -4329,7 +4335,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>6099</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>43969</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>291</v>
@@ -4365,7 +4371,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>6103</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>43997</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>296</v>
@@ -4401,7 +4407,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>6106</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>44004</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>301</v>
@@ -4433,7 +4439,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>6107</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>44011</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>306</v>
@@ -4469,7 +4475,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>6108</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>44011</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>310</v>
@@ -4499,7 +4505,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>6110</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>44018</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>314</v>
@@ -4529,7 +4535,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>6111</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>44034</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>318</v>
@@ -4565,7 +4571,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>6112</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>44039</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>323</v>
@@ -4601,7 +4607,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>6116</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>44055</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>327</v>
@@ -4631,7 +4637,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>6117</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>329</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C126" ca="1" si="1">YEAR(TODAY())-(1900+LEFT(D67,2))</f>
+        <f t="shared" ref="C67:C127" ca="1" si="1">YEAR(TODAY())-(1900+LEFT(D67,2))</f>
         <v>65</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4658,7 +4664,7 @@
         <v>44075</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>332</v>
@@ -4667,7 +4673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>6118</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>44075</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>337</v>
@@ -4703,7 +4709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>6119</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>44082</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>341</v>
@@ -4739,7 +4745,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>6120</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>44097</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>346</v>
@@ -4775,7 +4781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>6125</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>44136</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>350</v>
@@ -4811,7 +4817,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>6126</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>44141</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>355</v>
@@ -4847,7 +4853,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>6128</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>44144</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>360</v>
@@ -4883,7 +4889,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>6130</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>44151</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>364</v>
@@ -4913,7 +4919,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>6132</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>44165</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>369</v>
@@ -4949,7 +4955,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>6133</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>44165</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>374</v>
@@ -4985,7 +4991,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>6135</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>44182</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>379</v>
@@ -5021,7 +5027,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>6138</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>44228</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>384</v>
@@ -5053,7 +5059,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>6139</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>44228</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>389</v>
@@ -5089,7 +5095,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>6140</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>44228</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>394</v>
@@ -5125,7 +5131,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>6142</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>44244</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>398</v>
@@ -5155,7 +5161,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>6143</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>44249</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>402</v>
@@ -5185,7 +5191,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>6144</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>44249</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>405</v>
@@ -5215,7 +5221,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>6145</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>44249</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>409</v>
@@ -5245,7 +5251,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>6146</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>44257</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>414</v>
@@ -5281,7 +5287,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>6147</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>44257</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>419</v>
@@ -5317,7 +5323,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>6149</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>44260</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>424</v>
@@ -5353,7 +5359,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>6150</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>44263</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>429</v>
@@ -5389,7 +5395,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>6152</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>44272</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>434</v>
@@ -5425,7 +5431,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>6153</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>44287</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>439</v>
@@ -5461,7 +5467,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>6155</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>44301</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J91" s="7">
         <v>1077028058</v>
@@ -5497,7 +5503,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>6156</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>44301</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>447</v>
@@ -5527,7 +5533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>6157</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>44302</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>452</v>
@@ -5563,7 +5569,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>6158</v>
       </c>
@@ -5590,7 +5596,7 @@
         <v>44305</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>457</v>
@@ -5599,7 +5605,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>6160</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>44315</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>461</v>
@@ -5635,7 +5641,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>6161</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>44316</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>465</v>
@@ -5665,7 +5671,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>6163</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>44319</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>469</v>
@@ -5701,7 +5707,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>6164</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>44319</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>474</v>
@@ -5733,7 +5739,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>6165</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>44326</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>479</v>
@@ -5769,7 +5775,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>6166</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>44333</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>484</v>
@@ -5805,7 +5811,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>6167</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>44340</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>488</v>
@@ -5835,7 +5841,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>6168</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>44340</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>492</v>
@@ -5865,7 +5871,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>6169</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>44348</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>497</v>
@@ -5901,7 +5907,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>6170</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>44348</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>502</v>
@@ -5937,7 +5943,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>6171</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>44354</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>507</v>
@@ -5973,7 +5979,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>6172</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>44357</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>511</v>
@@ -6009,7 +6015,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>6173</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>44363</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>516</v>
@@ -6045,7 +6051,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>6174</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>44368</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>520</v>
@@ -6075,7 +6081,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>6175</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>44368</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>524</v>
@@ -6105,7 +6111,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>6176</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>44372</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>528</v>
@@ -6135,7 +6141,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>6177</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>44378</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>532</v>
@@ -6171,7 +6177,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>6178</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>44378</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>537</v>
@@ -6207,7 +6213,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>6179</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>44378</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>541</v>
@@ -6237,7 +6243,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>6180</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>44396</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>545</v>
@@ -6267,7 +6273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>6181</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>44406</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>549</v>
@@ -6297,7 +6303,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>6182</v>
       </c>
@@ -6324,7 +6330,7 @@
         <v>44410</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>554</v>
@@ -6333,7 +6339,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>6183</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>44433</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>558</v>
@@ -6363,7 +6369,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>6184</v>
       </c>
@@ -6384,16 +6390,16 @@
         <v>44440</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>562</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>6185</v>
       </c>
@@ -6414,16 +6420,16 @@
         <v>44440</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>565</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>6188</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>44487</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>569</v>
@@ -6459,7 +6465,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>6210</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>44679</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>574</v>
@@ -6495,7 +6501,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>6236</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>44835</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>323</v>
@@ -6531,7 +6537,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>6260</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>45055</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>452</v>
@@ -6567,7 +6573,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>6269</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>45291</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>141</v>
@@ -6603,7 +6609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>6283</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>45299</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>584</v>
@@ -6639,7 +6645,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>6510</v>
       </c>
@@ -6666,13 +6672,45 @@
         <v>44305</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>588</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>6702</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="6">
+        <v>42674</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
